--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/85.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/85.xlsx
@@ -479,13 +479,13 @@
         <v>-3.260205385768741</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.32715882618125</v>
+        <v>-10.04580523811256</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.189248409175037</v>
+        <v>-3.105863532376084</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.291786966144109</v>
+        <v>-6.642997898822374</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.98751251453587</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.8887269719714</v>
+        <v>-10.63061222144677</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.288239310961328</v>
+        <v>-3.212015923816799</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.178185054386452</v>
+        <v>-6.565831865873241</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.695283626588898</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.04580842146643</v>
+        <v>-10.8184736749227</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.18881636318126</v>
+        <v>-3.125436525124464</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.80149331702431</v>
+        <v>-6.212261135329586</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.403180617690404</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.50757394269411</v>
+        <v>-11.28884083911739</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.33239964844647</v>
+        <v>-3.25055966338284</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.505044303779107</v>
+        <v>-5.933827130794598</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.099425360053785</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.93346655413546</v>
+        <v>-11.76478532432266</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.413323172311179</v>
+        <v>-3.345413397471146</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.223677623407571</v>
+        <v>-5.65251281963443</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.777299142285034</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.4793108442127</v>
+        <v>-12.31085218354822</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.290294802507479</v>
+        <v>-3.215014061167554</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.908860109275427</v>
+        <v>-5.341164765755343</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.427125577890671</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.05736219928059</v>
+        <v>-12.9163580976752</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.284193789383234</v>
+        <v>-3.228001625586546</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.746908323123275</v>
+        <v>-5.177419334113875</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.036043728785985</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.47810953570514</v>
+        <v>-13.3547538583304</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.401055684548481</v>
+        <v>-3.331064233556614</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.603652345429108</v>
+        <v>-5.047805535980786</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.5987554911947434</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.15579331539857</v>
+        <v>-14.02374434893692</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.275186285028127</v>
+        <v>-3.207145587159677</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.568355496967815</v>
+        <v>-5.025954482537945</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1067877060143857</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.60114108886272</v>
+        <v>-14.48084901035294</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.356659685612188</v>
+        <v>-3.282648897647911</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.576066863341591</v>
+        <v>-5.01764087023345</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.430150848275377</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.15858515925773</v>
+        <v>-15.04134358731008</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.393802548774165</v>
+        <v>-3.310221287432586</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.317834282091386</v>
+        <v>-4.76164707276918</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>1.005948694909934</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.24079172880093</v>
+        <v>-15.14317551881302</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.487792190874917</v>
+        <v>-3.375172201830389</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.868506448563348</v>
+        <v>-4.300431428260854</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.594291209296242</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.93020621184055</v>
+        <v>-15.82013922185015</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.184810118511692</v>
+        <v>-3.10166090316389</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.50489392174009</v>
+        <v>-3.924839444337416</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.179023757054106</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.53071086628199</v>
+        <v>-16.44709032803189</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.119610450359896</v>
+        <v>-3.018878272295656</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.456216739774552</v>
+        <v>-3.869354264894181</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.734024037875851</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.29527516763311</v>
+        <v>-17.18188273272092</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.927035767860947</v>
+        <v>-2.849804273397605</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.212922476066757</v>
+        <v>-3.607167808185775</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.247277220184096</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.80679143965935</v>
+        <v>-17.69692083421159</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.794751139948147</v>
+        <v>-2.720151198355992</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.969209258668026</v>
+        <v>-3.320433283649132</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.705186548432593</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.22465846945872</v>
+        <v>-18.10983897353679</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.878973924128971</v>
+        <v>-2.797081569853975</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.881307537388677</v>
+        <v>-3.217095737319389</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>4.106985224134316</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.79540431954093</v>
+        <v>-18.6536670489764</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.658709021119772</v>
+        <v>-2.585235017572005</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.516935657000599</v>
+        <v>-2.832980664245987</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>4.452967348223303</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.11606100074048</v>
+        <v>-18.96762047112099</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.415715880377336</v>
+        <v>-2.343930783896152</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.140911627083384</v>
+        <v>-2.440054471360105</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>4.7474566687211</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.7976331943779</v>
+        <v>-19.59746497623075</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.174031969919072</v>
+        <v>-2.099693874383752</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.101189580261587</v>
+        <v>-2.382003200559891</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.994292019270158</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.36070695499485</v>
+        <v>-20.13927683703274</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.978707903823361</v>
+        <v>-1.93166725971304</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.076968820004395</v>
+        <v>-2.351157735064785</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>5.194223512716314</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.55521929831438</v>
+        <v>-20.31223924987479</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.850102213009086</v>
+        <v>-1.813679426503404</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.902815007603754</v>
+        <v>-2.158569960262994</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5.348477936385324</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.08359845640076</v>
+        <v>-20.8040123292157</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.649619779593735</v>
+        <v>-1.598834736870679</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.051949429273856</v>
+        <v>-2.318872116257088</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>5.453036439612268</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.24824725693831</v>
+        <v>-20.95806945675429</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.460737126496153</v>
+        <v>-1.415987635383133</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.06388960946551</v>
+        <v>-2.358031194056691</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.506788395133685</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.36331550661424</v>
+        <v>-21.10319763375482</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.470909845804174</v>
+        <v>-1.411627898536838</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.272227424585897</v>
+        <v>-2.587827293534667</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.504393736240215</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.44450087653578</v>
+        <v>-21.17066227029824</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.308931875046339</v>
+        <v>-1.284279068795369</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.514827796243081</v>
+        <v>-2.867505066839619</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.444317568171659</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.36666713614172</v>
+        <v>-21.10652307867662</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.255476002543572</v>
+        <v>-1.209967157865732</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.549470029562288</v>
+        <v>-2.907934098014869</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.324524558842223</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.42296403836114</v>
+        <v>-21.14623203319558</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.103448181945448</v>
+        <v>-1.069683132916637</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.86145960628062</v>
+        <v>-3.231405624325395</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.146149201528226</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.46123283956751</v>
+        <v>-21.1737258691632</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.194020733004509</v>
+        <v>-1.155765024100986</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.045118430544353</v>
+        <v>-3.399078746819381</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.913147418846141</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.3030909135423</v>
+        <v>-21.0223002944958</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.26107950815983</v>
+        <v>-1.225560090550228</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.090496352193776</v>
+        <v>-3.460992246957904</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.630686462806843</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.18685744891345</v>
+        <v>-20.90896022879497</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.347514891520906</v>
+        <v>-1.29597049523303</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.405745912319698</v>
+        <v>-3.80191581295645</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.310864865601963</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.14291968057662</v>
+        <v>-20.86116023111983</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.421564956393709</v>
+        <v>-1.367925791651157</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.314558023027076</v>
+        <v>-3.730785331617353</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.963993607651116</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.7497316416339</v>
+        <v>-20.45650333488776</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.566103979766364</v>
+        <v>-1.506219786568309</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.24768254011154</v>
+        <v>-3.685158656213937</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>3.608887954389962</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.48402335546107</v>
+        <v>-20.18486423552763</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.596753060718845</v>
+        <v>-1.549437478248847</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.21226786092467</v>
+        <v>-3.645043840306888</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.259068396373713</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.25124221093518</v>
+        <v>-19.96153573365347</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.769492904412579</v>
+        <v>-1.71648217020643</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.107018838380035</v>
+        <v>-3.568165838020273</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.933819746713943</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.9657514551685</v>
+        <v>-19.67226130236553</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.775279702268622</v>
+        <v>-1.713209094495999</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.930220380805366</v>
+        <v>-3.361202714698267</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.64204046880998</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.64776560374866</v>
+        <v>-19.36664767713112</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.846043599128151</v>
+        <v>-1.791029742587218</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.568178930323115</v>
+        <v>-3.029888898985547</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.394201442285424</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.51741863665644</v>
+        <v>-19.21444965659605</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.783828976024269</v>
+        <v>-1.720540784087365</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.232832685335143</v>
+        <v>-2.70034254415646</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.18953816896639</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.14732541992652</v>
+        <v>-18.87063269166948</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.925121108292177</v>
+        <v>-1.901960824565163</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.384716490602008</v>
+        <v>-2.864624760214439</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.027557055082587</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.7762240958778</v>
+        <v>-18.51858066825547</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.784496683469197</v>
+        <v>-1.783855160629952</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.974508457965046</v>
+        <v>-2.441285147827227</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.898915117562145</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.2285730680084</v>
+        <v>-18.00074081395668</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.8899551828593</v>
+        <v>-1.872791173833797</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.87623763283505</v>
+        <v>-2.328835358719642</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.794684016431403</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.8794144435224</v>
+        <v>-17.63537391855263</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.168886694902274</v>
+        <v>-2.137569906504865</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.786358973826601</v>
+        <v>-2.222460398130617</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.70134059191389</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.69976186392824</v>
+        <v>-17.4932569712057</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.284059683000939</v>
+        <v>-2.257861985014645</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.607531209311464</v>
+        <v>-2.070799162012062</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.605149107416504</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.52933935783749</v>
+        <v>-17.34280022694858</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.197519561217129</v>
+        <v>-2.144718303856448</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.554677582739416</v>
+        <v>-1.99834635808595</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.492055650797259</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.10848728299021</v>
+        <v>-16.93831353065345</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.321608407551009</v>
+        <v>-2.289388250257521</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.366567375509496</v>
+        <v>-1.820120839501534</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.346538256511589</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.18206602496071</v>
+        <v>-17.02524642152251</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.228797072706013</v>
+        <v>-2.2112533868981</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.248186773214609</v>
+        <v>-1.698833745975783</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.157646870249286</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.05385310323168</v>
+        <v>-16.89167874793122</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.364551160871871</v>
+        <v>-2.338026155314533</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.02822299317077</v>
+        <v>-1.480729072935469</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.9122779148213565</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.60082014799944</v>
+        <v>-16.46096816904412</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.390316812864387</v>
+        <v>-2.364079837969568</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.983394948240699</v>
+        <v>-1.420661587497629</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6077411786343493</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.32521408087826</v>
+        <v>-16.21667889032035</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.576345343942473</v>
+        <v>-2.54954540002546</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.798348339875743</v>
+        <v>-1.238338178123752</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2379412865768485</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.87375220198702</v>
+        <v>-15.76600254959962</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.682392996960454</v>
+        <v>-2.651194039288621</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.704738374557402</v>
+        <v>-1.173426540634474</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1889211276896578</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.7118396927434</v>
+        <v>-15.60143230287912</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.590720692462688</v>
+        <v>-2.572116530124596</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.653848593411612</v>
+        <v>-1.130732541067606</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.67040912427295</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.25844015303158</v>
+        <v>-15.15961945118223</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.47164619811719</v>
+        <v>-2.428389229528127</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.673028817074741</v>
+        <v>-1.161512545048504</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.188815607092842</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.92528032261818</v>
+        <v>-14.84046838480947</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.677090614309555</v>
+        <v>-2.618253805338838</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.867082929794805</v>
+        <v>-1.351193828619431</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.734431881447076</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.53977746544355</v>
+        <v>-14.4373171034042</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.698627452484195</v>
+        <v>-2.659258897839124</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.899093610242825</v>
+        <v>-1.381869094177595</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.285149553165003</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.63146286224416</v>
+        <v>-14.53723755869226</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.534960574659777</v>
+        <v>-2.491258467774095</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.784274114320888</v>
+        <v>-1.264418045384471</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.826244623197541</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.48437083981737</v>
+        <v>-14.35936553228457</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.687983410273871</v>
+        <v>-2.646585548688333</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.972986567481527</v>
+        <v>-1.482509626121943</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.336550421376109</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.40607886882385</v>
+        <v>-14.30880305870982</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.551299768606251</v>
+        <v>-2.506943046578483</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.318413885657628</v>
+        <v>-1.850246228340345</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.802071225329744</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.07276193077634</v>
+        <v>-13.98742630085397</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.539817819014057</v>
+        <v>-2.486807084807908</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.547987415987294</v>
+        <v>-2.064514856648034</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.207954912250612</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.75975115443635</v>
+        <v>-13.67345978640654</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.59225249189517</v>
+        <v>-2.534384513334741</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.720674890469661</v>
+        <v>-2.252808356117738</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.544780900614189</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.77419196447078</v>
+        <v>-13.6683014190869</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.456354388398053</v>
+        <v>-2.416972741450142</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.88275759965023</v>
+        <v>-2.414118619430645</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.805920509170047</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.58745644903924</v>
+        <v>-13.46844741620795</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.438156087448054</v>
+        <v>-2.406957129776221</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.057016150473604</v>
+        <v>-2.593470076059451</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.987524382068976</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.49066505413036</v>
+        <v>-13.32816339125885</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.526804069989382</v>
+        <v>-2.497280927081289</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.050784214320942</v>
+        <v>-2.593378429939559</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.090219328967149</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.27599056443458</v>
+        <v>-13.11367219380286</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.399520701762121</v>
+        <v>-2.365179591408273</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.135713982855219</v>
+        <v>-2.682353720051929</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.114298006755678</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.16687931255163</v>
+        <v>-12.97905713598423</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.380602324155827</v>
+        <v>-2.355478195002554</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.401828130416143</v>
+        <v>-2.966168661054867</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.064016300484401</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.09645581556599</v>
+        <v>-12.91140920720103</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.439085640949817</v>
+        <v>-2.414956526812516</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.357549962205426</v>
+        <v>-2.930675428050947</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.942679742567676</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.16863368113242</v>
+        <v>-12.9741213378129</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.565753670943517</v>
+        <v>-2.542986156301755</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.304054812794133</v>
+        <v>-2.873462064632605</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.756647601311175</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.22736575168041</v>
+        <v>-13.00748052545362</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.619811789377004</v>
+        <v>-2.606064871393191</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.409932265875172</v>
+        <v>-2.96163872427163</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.512932391187788</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.03665017618498</v>
+        <v>-12.81703988831787</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.421581232050429</v>
+        <v>-2.413280712048775</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.242782835494855</v>
+        <v>-2.768723641898796</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.21939956954717</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.17381823305775</v>
+        <v>-12.9442185181224</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.687197872103368</v>
+        <v>-2.682602473805922</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.191578839080864</v>
+        <v>-2.711903047565705</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.887242792956296</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.08204119013725</v>
+        <v>-12.86730123892726</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.724288366053977</v>
+        <v>-2.714691708070992</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.034523574191518</v>
+        <v>-2.55766262778733</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.524010116514597</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.20542305211767</v>
+        <v>-12.97278592292304</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.791294771997932</v>
+        <v>-2.790679433764371</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.050758029715259</v>
+        <v>-2.534541620968842</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.1430156357154</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.33858486432087</v>
+        <v>-13.07508917732829</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.794410740074262</v>
+        <v>-2.803915751937355</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.944448530640443</v>
+        <v>-2.414498296213055</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.748664766454177</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.57640654544082</v>
+        <v>-13.33198634368864</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.854582963934835</v>
+        <v>-2.869128512391993</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.008784106804685</v>
+        <v>-2.4812821330087</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.353494751016336</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.82176939299761</v>
+        <v>-13.62298895895169</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.931971566032278</v>
+        <v>-2.939146147989544</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.861993207343252</v>
+        <v>-2.328076005154822</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.958742101396587</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.95550726652584</v>
+        <v>-13.7456769288815</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.090702645685365</v>
+        <v>-3.120566188467342</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.503185555662908</v>
+        <v>-1.94798026905383</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.573266807903305</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.44424293160748</v>
+        <v>-14.2535404484149</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.214176153785683</v>
+        <v>-3.227111348993309</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.234322024505221</v>
+        <v>-1.672099263572979</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.194817654085251</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.2197916750428</v>
+        <v>-15.02000313367807</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.427672336225711</v>
+        <v>-3.4382116400133</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.083760541825372</v>
+        <v>-1.521275934836294</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8277025710538489</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.63807765853311</v>
+        <v>-15.44788577515136</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.348817396209995</v>
+        <v>-3.372383541325101</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.061542903902962</v>
+        <v>-1.4600301421427</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4680023715978224</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.0850357852468</v>
+        <v>-15.94170125373558</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.556958826787755</v>
+        <v>-3.562392132467072</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.887493829925056</v>
+        <v>-1.289358882297959</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1167850619039768</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.71854613515224</v>
+        <v>-16.57293354294656</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.70778215552444</v>
+        <v>-3.714891275967497</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.61650934570701</v>
+        <v>-1.041141912721674</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2294936636263163</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.41997935220055</v>
+        <v>-17.30187368826534</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.963108245543781</v>
+        <v>-3.978727362833961</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.622963851007981</v>
+        <v>-1.012011538898834</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.5716028251886949</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.25890793369268</v>
+        <v>-18.16273187701736</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.199817080922189</v>
+        <v>-4.205198017390138</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.699475268815028</v>
+        <v>-1.062744212410522</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.9109937197007427</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.03703586078782</v>
+        <v>-18.96659927149934</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.429927395668367</v>
+        <v>-4.439825176616711</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.469378046371692</v>
+        <v>-0.8397561104102438</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.248690192801818</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.94337670961199</v>
+        <v>-19.88434351609865</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.596867349203215</v>
+        <v>-4.602627962453575</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.483517733440756</v>
+        <v>-0.8438016319883371</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.582662543975726</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.16537297995018</v>
+        <v>-21.12702562492677</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.815076760666264</v>
+        <v>-4.827082402372127</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.448391084916405</v>
+        <v>-0.8063314612553172</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.912469897952262</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.25094745467758</v>
+        <v>-22.2048625486747</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.864290727048312</v>
+        <v>-4.866280757080254</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.692038840800927</v>
+        <v>-1.041272835750092</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.231959144686694</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.65470416536745</v>
+        <v>-23.64910065975119</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.903201051093922</v>
+        <v>-4.915167415891259</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.695298824208517</v>
+        <v>-1.013085107731855</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.538109580564268</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.01430053857218</v>
+        <v>-25.02439470406315</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.165439877013695</v>
+        <v>-5.170611336636177</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.82813332884067</v>
+        <v>-1.177393508395517</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.820882819679797</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.55700585932129</v>
+        <v>-26.56662870190995</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.265726916781317</v>
+        <v>-5.265609086055742</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.027254162760482</v>
+        <v>-1.345695061425906</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.074630192846906</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.09237949047903</v>
+        <v>-28.11412580549913</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.51469014761958</v>
+        <v>-5.52022819172163</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.291797233980398</v>
+        <v>-1.620410851953844</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.288255511756156</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.79172112242654</v>
+        <v>-29.80345182577273</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.663863846198207</v>
+        <v>-5.662122569920257</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.523871394152835</v>
+        <v>-1.814438780068224</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.456921470836406</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.51420994579824</v>
+        <v>-31.52749863318259</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.819243296323812</v>
+        <v>-5.802040010389783</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.962123139476773</v>
+        <v>-2.259197399904501</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.572681628196067</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.16178461230957</v>
+        <v>-33.18921298676298</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.774192682245432</v>
+        <v>-5.762252502053778</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.374478309779778</v>
+        <v>-2.693063223776461</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.635022845063335</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.15274419775369</v>
+        <v>-35.16397739359189</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.989155202603732</v>
+        <v>-5.962839673891863</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.564774931584266</v>
+        <v>-2.866195836555447</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>3.640890448096725</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.98056059748707</v>
+        <v>-37.00356377357998</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.311474606264186</v>
+        <v>-6.269461406445087</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.152881175234601</v>
+        <v>-3.452691726956249</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.597213220392006</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.07542069828313</v>
+        <v>-39.09318695323935</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.299927195157784</v>
+        <v>-6.271058667391778</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.481733638013076</v>
+        <v>-3.772929454464869</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.505648312264193</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.32572571071901</v>
+        <v>-41.34333485804113</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.506654657028639</v>
+        <v>-6.452112123390008</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.998251169724854</v>
+        <v>-4.287653340687329</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.383254058718915</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.26724876063277</v>
+        <v>-43.28807861445397</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.616996585378706</v>
+        <v>-6.557505161265903</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.269641515330993</v>
+        <v>-4.569831743835051</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.229037131118706</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.36498916805402</v>
+        <v>-45.37106399657258</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.732379050322838</v>
+        <v>-6.667074643748308</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.364115572636888</v>
+        <v>-4.658388080256486</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.072885768419067</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.53024658123005</v>
+        <v>-47.52353022987224</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.871183645050817</v>
+        <v>-6.781501370584994</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.839654196454062</v>
+        <v>-5.152452312594702</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.892359328123492</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.67649397067988</v>
+        <v>-49.67557750948096</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.294850565009074</v>
+        <v>-7.209488750481019</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.274475758433469</v>
+        <v>-5.584969629273965</v>
       </c>
     </row>
   </sheetData>
